--- a/outputs/ML_Results/carown_LR_new/Toulouse.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Toulouse.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ5" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ11" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ12" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ10" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ7" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ11" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ34" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ7" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ0" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ5" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ19" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1876571484532004</v>
+        <v>0.1043833700706174</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8231744318327705</v>
+        <v>0.899444368466034</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.223687811287455</v>
+        <v>0.5093206429697674</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5384155862407785</v>
+        <v>0.1650279283746894</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6988389359422296</v>
+        <v>-0.7414530107439005</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0009031958418809067</v>
+        <v>0.0004357218319016616</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5288709510559527</v>
+        <v>-0.5608859090217054</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01474972633095663</v>
+        <v>0.01005050770283621</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5572766227885975</v>
+        <v>-0.6444223987728458</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0178871048426074</v>
+        <v>0.004919714601876014</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02914128497036545</v>
+        <v>-0.04132501191959156</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8341080409447506</v>
+        <v>0.7664501600789982</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008589163016553288</v>
+        <v>0.0009001032080852262</v>
       </c>
       <c r="C8" t="n">
-        <v>1.757128965171636e-30</v>
+        <v>1.106083168413962e-31</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.005117493215649149</v>
+        <v>-0.007910032114738872</v>
       </c>
       <c r="C9" t="n">
-        <v>0.189368606733287</v>
+        <v>0.04441816364752528</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.607926417195579</v>
+        <v>0.6519055900455681</v>
       </c>
       <c r="C10" t="n">
-        <v>7.887088871911672e-07</v>
+        <v>1.508597036622009e-07</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6058530699795083</v>
+        <v>0.5569246995734265</v>
       </c>
       <c r="C11" t="n">
-        <v>1.678815924224046e-05</v>
+        <v>7.6926425654981e-05</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2251463956840252</v>
+        <v>0.2666212548415753</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2827424483805847</v>
+        <v>0.2016284832897258</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.996464980769742e-05</v>
+        <v>-5.355725112700256e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4195517148115829</v>
+        <v>0.2721877161543279</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.195598004350787e-08</v>
+        <v>4.680272355067225e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4844230991009261</v>
+        <v>0.3029118367665331</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02040213066277832</v>
+        <v>0.02495271743871062</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5870535872291184</v>
+        <v>0.5041496900189897</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04691838307295595</v>
+        <v>0.04929280203307317</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07357466055263766</v>
+        <v>0.05591870581534311</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.2117752378373328</v>
+        <v>-0.3401423059546104</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7756711658134896</v>
+        <v>0.642206107380811</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.008730358509734627</v>
+        <v>-0.009641708944664346</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01789363939946777</v>
+        <v>0.008358369655350818</v>
       </c>
     </row>
     <row r="19">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.004901365192041251</v>
+        <v>0.003450906849050426</v>
       </c>
       <c r="C19" t="n">
-        <v>0.376612714595596</v>
+        <v>0.5230328985634338</v>
       </c>
     </row>
     <row r="20">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.186136413577207</v>
+        <v>1.23455418453442</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01268787061778589</v>
+        <v>0.00914031369244063</v>
       </c>
     </row>
     <row r="21">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2529145312144181</v>
+        <v>0.1652685475481424</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6902456336125853</v>
+        <v>0.7903785503893579</v>
       </c>
     </row>
     <row r="22">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0002429913976547953</v>
+        <v>-0.000196268228245244</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06761488679208381</v>
+        <v>0.136598084935089</v>
       </c>
     </row>
   </sheetData>
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.04395208284203477</v>
+        <v>0.1942942954937903</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9582036282708752</v>
+        <v>0.8101255427985505</v>
       </c>
     </row>
     <row r="3">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4415368799120649</v>
+        <v>0.4611035831766299</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2301547646781625</v>
+        <v>0.2254582268562468</v>
       </c>
     </row>
     <row r="4">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9711958081930159</v>
+        <v>-0.8005282439723292</v>
       </c>
       <c r="C4" t="n">
-        <v>3.387097602550246e-06</v>
+        <v>0.000137489298545086</v>
       </c>
     </row>
     <row r="5">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7585926364062608</v>
+        <v>-0.6223703755105827</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004202753576799642</v>
+        <v>0.003941865272140181</v>
       </c>
     </row>
     <row r="6">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8056370230602032</v>
+        <v>-0.8095152492165886</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0004747463127246384</v>
+        <v>0.0004057829631926913</v>
       </c>
     </row>
     <row r="7">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.08588995831755271</v>
+        <v>0.01444548069367248</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5244330285900123</v>
+        <v>0.9175225873214029</v>
       </c>
     </row>
     <row r="8">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008742366052497939</v>
+        <v>0.0008440174275424295</v>
       </c>
       <c r="C8" t="n">
-        <v>2.378702669954858e-29</v>
+        <v>1.176708014072457e-28</v>
       </c>
     </row>
     <row r="9">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.009589489536874603</v>
+        <v>-0.007510730888593243</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01513241777531702</v>
+        <v>0.05412571289716463</v>
       </c>
     </row>
     <row r="10">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.712194208941486</v>
+        <v>0.5841525238648165</v>
       </c>
       <c r="C10" t="n">
-        <v>1.2987625995413e-08</v>
+        <v>1.787775288316583e-06</v>
       </c>
     </row>
     <row r="11">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7289123750728794</v>
+        <v>0.7148103658675967</v>
       </c>
       <c r="C11" t="n">
-        <v>2.277410096102172e-07</v>
+        <v>3.976029611017044e-07</v>
       </c>
     </row>
     <row r="12">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4998377081679497</v>
+        <v>0.4416695640838744</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01757142217491256</v>
+        <v>0.03345478168219462</v>
       </c>
     </row>
     <row r="13">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.243239280957181e-05</v>
+        <v>-4.926207495935074e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6520151287048186</v>
+        <v>0.3182984996127244</v>
       </c>
     </row>
     <row r="14">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.613865794052857e-08</v>
+        <v>5.820684534809434e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1594636708538891</v>
+        <v>0.2135315334578501</v>
       </c>
     </row>
     <row r="15">
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.009902417091144724</v>
+        <v>0.001950753518373295</v>
       </c>
       <c r="C15" t="n">
-        <v>0.791657530508323</v>
+        <v>0.9575190588087978</v>
       </c>
     </row>
     <row r="16">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04073035064549283</v>
+        <v>0.03609308533506786</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1181273010063632</v>
+        <v>0.1599774222987655</v>
       </c>
     </row>
     <row r="17">
@@ -970,10 +970,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.7152492329892866</v>
+        <v>-0.1041502943934144</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3352593126704931</v>
+        <v>0.8885111400712251</v>
       </c>
     </row>
     <row r="18">
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.008763969610350779</v>
+        <v>-0.01102309906817594</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01812360797941485</v>
+        <v>0.002484904780304853</v>
       </c>
     </row>
     <row r="19">
@@ -996,10 +996,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.006438961878452314</v>
+        <v>0.003553740701769509</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2503495643210268</v>
+        <v>0.4965772840419109</v>
       </c>
     </row>
     <row r="20">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.357509073136074</v>
+        <v>1.278593697054629</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0043750378002757</v>
+        <v>0.006957183057786552</v>
       </c>
     </row>
     <row r="21">
@@ -1022,10 +1022,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4121484843027065</v>
+        <v>0.1869957305941669</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5164080832266512</v>
+        <v>0.7667037142584447</v>
       </c>
     </row>
     <row r="22">
@@ -1035,10 +1035,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0003263381488470394</v>
+        <v>-0.0002520970166678887</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01594189695786419</v>
+        <v>0.05937476400402102</v>
       </c>
     </row>
   </sheetData>
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.3225320715556656</v>
+        <v>-0.09456681584832932</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6958100658581016</v>
+        <v>0.9086514689471001</v>
       </c>
     </row>
     <row r="3">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3094405953661608</v>
+        <v>0.5061598497399198</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3873136981482481</v>
+        <v>0.1741237203333053</v>
       </c>
     </row>
     <row r="4">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7041521755701999</v>
+        <v>-0.7760497449594541</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006293010863750145</v>
+        <v>0.0002011668164444475</v>
       </c>
     </row>
     <row r="5">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5210906217769831</v>
+        <v>-0.6140086897896589</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01380111954962074</v>
+        <v>0.004202447952991752</v>
       </c>
     </row>
     <row r="6">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7071460537189104</v>
+        <v>-0.4985289259166616</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001751691848595985</v>
+        <v>0.03251363942222794</v>
       </c>
     </row>
     <row r="7">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.008785092531544126</v>
+        <v>-0.06101491350532318</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9473034735976532</v>
+        <v>0.6609225578393798</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008601138563670205</v>
+        <v>0.0008568271062736544</v>
       </c>
       <c r="C8" t="n">
-        <v>1.204935293705775e-30</v>
+        <v>2.993242929753361e-30</v>
       </c>
     </row>
     <row r="9">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.004622882648292467</v>
+        <v>-0.005998404427144113</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2401768421548021</v>
+        <v>0.1215536235148177</v>
       </c>
     </row>
     <row r="10">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6133093603790336</v>
+        <v>0.6846436477508114</v>
       </c>
       <c r="C10" t="n">
-        <v>5.181302831979001e-07</v>
+        <v>2.360770921909368e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6407327695117015</v>
+        <v>0.5666973672706568</v>
       </c>
       <c r="C11" t="n">
-        <v>4.308631984534088e-06</v>
+        <v>4.710235603334611e-05</v>
       </c>
     </row>
     <row r="12">
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1907967582293715</v>
+        <v>0.2962561657252147</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3662106625790398</v>
+        <v>0.1521861244417907</v>
       </c>
     </row>
     <row r="13">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.912445548353884e-05</v>
+        <v>-3.539766606755278e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3146028235013603</v>
+        <v>0.4686131421318039</v>
       </c>
     </row>
     <row r="14">
@@ -1240,10 +1240,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.354772623972685e-08</v>
+        <v>4.1004059514872e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4452323704472422</v>
+        <v>0.3712120046790315</v>
       </c>
     </row>
     <row r="15">
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03008458890113611</v>
+        <v>0.02949819048997416</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4160178472051124</v>
+        <v>0.4246265914712256</v>
       </c>
     </row>
     <row r="16">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04136213373707568</v>
+        <v>0.04049617135363703</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1072609110000959</v>
+        <v>0.1099402600041517</v>
       </c>
     </row>
     <row r="17">
@@ -1279,10 +1279,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.237187857341788</v>
+        <v>-0.1747554635458199</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7464531685083073</v>
+        <v>0.8098683344325235</v>
       </c>
     </row>
     <row r="18">
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.008664997129374069</v>
+        <v>-0.008975303579038781</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01675124685328678</v>
+        <v>0.01338773387158883</v>
       </c>
     </row>
     <row r="19">
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.006032406195011548</v>
+        <v>0.00492018726048434</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2707615016938445</v>
+        <v>0.3646650032616251</v>
       </c>
     </row>
     <row r="20">
@@ -1318,10 +1318,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.215683105052079</v>
+        <v>1.230329949099436</v>
       </c>
       <c r="C20" t="n">
-        <v>0.009545305201703873</v>
+        <v>0.008785713723620657</v>
       </c>
     </row>
     <row r="21">
@@ -1331,10 +1331,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1010655877090428</v>
+        <v>0.2327127819811532</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8696349885301338</v>
+        <v>0.7086265916280786</v>
       </c>
     </row>
     <row r="22">
@@ -1344,10 +1344,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0002323626537430178</v>
+        <v>-0.0002503305970278284</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07764565136926135</v>
+        <v>0.05596652673331895</v>
       </c>
     </row>
   </sheetData>
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1447801842567079</v>
+        <v>-0.4435051927450994</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8579771193462199</v>
+        <v>0.6009223436606252</v>
       </c>
     </row>
     <row r="3">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3790100584934075</v>
+        <v>0.5393439736547401</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2930018300439086</v>
+        <v>0.1427915712772669</v>
       </c>
     </row>
     <row r="4">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8050816109711884</v>
+        <v>-0.740226122446686</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001416625909948334</v>
+        <v>0.0003987404671062915</v>
       </c>
     </row>
     <row r="5">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6328095303714183</v>
+        <v>-0.6111967177101831</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003687089638112558</v>
+        <v>0.004567454171251623</v>
       </c>
     </row>
     <row r="6">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7198639285682338</v>
+        <v>-0.5690973295779124</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001844437079167771</v>
+        <v>0.01505686721025344</v>
       </c>
     </row>
     <row r="7">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.04004041598513287</v>
+        <v>-0.06853358055665604</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7734641193977491</v>
+        <v>0.613934142611495</v>
       </c>
     </row>
     <row r="8">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008721599673518406</v>
+        <v>0.0008491466289865694</v>
       </c>
       <c r="C8" t="n">
-        <v>1.140896970935656e-30</v>
+        <v>3.355950471212095e-29</v>
       </c>
     </row>
     <row r="9">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.008256196114008364</v>
+        <v>-0.005676521644237859</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03567110265082003</v>
+        <v>0.1513273188935273</v>
       </c>
     </row>
     <row r="10">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5331402780778151</v>
+        <v>0.5952445879912964</v>
       </c>
       <c r="C10" t="n">
-        <v>1.312606269110796e-05</v>
+        <v>1.542513653531104e-06</v>
       </c>
     </row>
     <row r="11">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7411415226793047</v>
+        <v>0.7267952319195656</v>
       </c>
       <c r="C11" t="n">
-        <v>1.43120286654298e-07</v>
+        <v>2.842049826154787e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3948485796968729</v>
+        <v>0.3119627117685009</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05712720901729131</v>
+        <v>0.1377155974710473</v>
       </c>
     </row>
     <row r="13">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.009308620176741e-05</v>
+        <v>-1.71709026680101e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2205724011795147</v>
+        <v>0.73140600718666</v>
       </c>
     </row>
     <row r="14">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.48526362837949e-08</v>
+        <v>4.021631066255211e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5684086356259814</v>
+        <v>0.3805273221512965</v>
       </c>
     </row>
     <row r="15">
@@ -1562,10 +1562,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02050886178299888</v>
+        <v>0.006251071055562153</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5766010582435495</v>
+        <v>0.8698954306261504</v>
       </c>
     </row>
     <row r="16">
@@ -1575,10 +1575,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04649538191451714</v>
+        <v>0.05855737901162442</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07066384786110252</v>
+        <v>0.03366359105679562</v>
       </c>
     </row>
     <row r="17">
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0866860592893612</v>
+        <v>-0.5587341079633911</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9062976737170633</v>
+        <v>0.4545896369934044</v>
       </c>
     </row>
     <row r="18">
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.009872023544042588</v>
+        <v>-0.005678797734767753</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00647163757614635</v>
+        <v>0.1289583940018447</v>
       </c>
     </row>
     <row r="19">
@@ -1614,10 +1614,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.003162922866459932</v>
+        <v>0.006980329513623713</v>
       </c>
       <c r="C19" t="n">
-        <v>0.541522904389266</v>
+        <v>0.2195279327203734</v>
       </c>
     </row>
     <row r="20">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.338920209044483</v>
+        <v>1.063428230833065</v>
       </c>
       <c r="C20" t="n">
-        <v>0.004102778226469486</v>
+        <v>0.0259019263971882</v>
       </c>
     </row>
     <row r="21">
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1634142748422812</v>
+        <v>0.474880548031659</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7894441296325813</v>
+        <v>0.4564389087890132</v>
       </c>
     </row>
     <row r="22">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0001601243857447141</v>
+        <v>-0.0003018620524278619</v>
       </c>
       <c r="C22" t="n">
-        <v>0.225346408935772</v>
+        <v>0.02393704435219814</v>
       </c>
     </row>
   </sheetData>
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.01281910984700469</v>
+        <v>0.2395613733121189</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9873818557078927</v>
+        <v>0.7697953702632684</v>
       </c>
     </row>
     <row r="3">
@@ -1715,10 +1715,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2887044533885958</v>
+        <v>0.2842789260655135</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4259639239103648</v>
+        <v>0.446469865497272</v>
       </c>
     </row>
     <row r="4">
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8172689531067234</v>
+        <v>-0.7857214810873583</v>
       </c>
       <c r="C4" t="n">
-        <v>8.487424383872708e-05</v>
+        <v>0.0002225465178531577</v>
       </c>
     </row>
     <row r="5">
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6386598617689841</v>
+        <v>-0.6249129618126156</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002862060236236245</v>
+        <v>0.004347291358409635</v>
       </c>
     </row>
     <row r="6">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6839559503717089</v>
+        <v>-0.7749547421446317</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002923719136708229</v>
+        <v>0.001087372827541189</v>
       </c>
     </row>
     <row r="7">
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.03467890190125947</v>
+        <v>-0.01380957985271136</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7962131447515508</v>
+        <v>0.9222401833788463</v>
       </c>
     </row>
     <row r="8">
@@ -1780,10 +1780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0009039001188177171</v>
+        <v>0.0008753713076537522</v>
       </c>
       <c r="C8" t="n">
-        <v>2.49067392477702e-31</v>
+        <v>2.84559803977127e-30</v>
       </c>
     </row>
     <row r="9">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.00687350399999036</v>
+        <v>-0.006082551800912724</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07897959546654337</v>
+        <v>0.1260122925169809</v>
       </c>
     </row>
     <row r="10">
@@ -1806,10 +1806,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.655374548055619</v>
+        <v>0.5582581634545588</v>
       </c>
       <c r="C10" t="n">
-        <v>1.223492653999181e-07</v>
+        <v>7.801088011744525e-06</v>
       </c>
     </row>
     <row r="11">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6689383903830824</v>
+        <v>0.7477289418718399</v>
       </c>
       <c r="C11" t="n">
-        <v>2.02205743711291e-06</v>
+        <v>1.216515026791273e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.37762497992753</v>
+        <v>0.2562686805314176</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07122649989212204</v>
+        <v>0.222691819921835</v>
       </c>
     </row>
     <row r="13">
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.73819649375941e-05</v>
+        <v>-5.104875139220322e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4524335430353816</v>
+        <v>0.3043208694236187</v>
       </c>
     </row>
     <row r="14">
@@ -1858,10 +1858,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.739051560073452e-08</v>
+        <v>3.15067036164433e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3141443114840974</v>
+        <v>0.4806584575003253</v>
       </c>
     </row>
     <row r="15">
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.002955065516103328</v>
+        <v>0.0204269105424599</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9374312614385594</v>
+        <v>0.5789579182522533</v>
       </c>
     </row>
     <row r="16">
@@ -1884,10 +1884,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.06517906452923908</v>
+        <v>0.04687720136502862</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01590279393629504</v>
+        <v>0.07006870005475466</v>
       </c>
     </row>
     <row r="17">
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.03216653304495047</v>
+        <v>0.2275587367698912</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9657290409873449</v>
+        <v>0.7614038066032636</v>
       </c>
     </row>
     <row r="18">
@@ -1910,10 +1910,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.008575381878796633</v>
+        <v>-0.008565125966389335</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01912754561032195</v>
+        <v>0.02036694085472744</v>
       </c>
     </row>
     <row r="19">
@@ -1923,10 +1923,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.002434521448628991</v>
+        <v>0.002083811185946339</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6462377320858709</v>
+        <v>0.6926088833527166</v>
       </c>
     </row>
     <row r="20">
@@ -1936,10 +1936,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.220258436460397</v>
+        <v>1.037636136709916</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01048112569518759</v>
+        <v>0.02785574659291402</v>
       </c>
     </row>
     <row r="21">
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3988070683633526</v>
+        <v>0.1075626206368655</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5247697978109659</v>
+        <v>0.862850175687924</v>
       </c>
     </row>
     <row r="22">
@@ -1962,10 +1962,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0002811910573280348</v>
+        <v>-0.0002497012556978567</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0358000084072688</v>
+        <v>0.06622824360759787</v>
       </c>
     </row>
   </sheetData>
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.3800587618758377</v>
+        <v>0.07017685582149145</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6498781777730542</v>
+        <v>0.9324385503728092</v>
       </c>
     </row>
     <row r="3">
@@ -2024,10 +2024,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4571546352229439</v>
+        <v>0.3330282054532149</v>
       </c>
       <c r="C3" t="n">
-        <v>0.226667050080484</v>
+        <v>0.3509215146726016</v>
       </c>
     </row>
     <row r="4">
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6866855688218357</v>
+        <v>-0.7804626600365737</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00126253219137331</v>
+        <v>0.0001584640519225977</v>
       </c>
     </row>
     <row r="5">
@@ -2050,10 +2050,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5079477448524814</v>
+        <v>-0.6080485853441239</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02030692212885698</v>
+        <v>0.004334087793554178</v>
       </c>
     </row>
     <row r="6">
@@ -2063,10 +2063,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7358490440255123</v>
+        <v>-0.8277578678092928</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001252029263273985</v>
+        <v>0.0002357803695643964</v>
       </c>
     </row>
     <row r="7">
@@ -2076,10 +2076,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02628956228417898</v>
+        <v>-0.02329927820849465</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8542822851753176</v>
+        <v>0.8608551742924473</v>
       </c>
     </row>
     <row r="8">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008515480401681301</v>
+        <v>0.0008800760650272839</v>
       </c>
       <c r="C8" t="n">
-        <v>1.205670666809374e-29</v>
+        <v>6.51346316623678e-31</v>
       </c>
     </row>
     <row r="9">
@@ -2102,10 +2102,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.005395719282944063</v>
+        <v>-0.008744185044819908</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1672352303102885</v>
+        <v>0.02660490394104066</v>
       </c>
     </row>
     <row r="10">
@@ -2115,10 +2115,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.601207385116706</v>
+        <v>0.5856250870022671</v>
       </c>
       <c r="C10" t="n">
-        <v>9.25479716502803e-07</v>
+        <v>1.971289985003971e-06</v>
       </c>
     </row>
     <row r="11">
@@ -2128,10 +2128,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6430754225942735</v>
+        <v>0.7192889002923569</v>
       </c>
       <c r="C11" t="n">
-        <v>4.323037575945119e-06</v>
+        <v>3.32930093260812e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2810787861537125</v>
+        <v>0.3716985941255956</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1749489973481597</v>
+        <v>0.0783320868638296</v>
       </c>
     </row>
     <row r="13">
@@ -2154,10 +2154,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.610670174144678e-05</v>
+        <v>-2.031103253084114e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.747448662961063</v>
+        <v>0.6840681359649672</v>
       </c>
     </row>
     <row r="14">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.009957527687656e-08</v>
+        <v>3.092807420930081e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5106172051788539</v>
+        <v>0.4922123617657963</v>
       </c>
     </row>
     <row r="15">
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02659308453371697</v>
+        <v>0.01347407668417143</v>
       </c>
       <c r="C15" t="n">
-        <v>0.466819282584944</v>
+        <v>0.7173472960825504</v>
       </c>
     </row>
     <row r="16">
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03375586532660884</v>
+        <v>0.04176052037310864</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1826162940182278</v>
+        <v>0.1082213206303786</v>
       </c>
     </row>
     <row r="17">
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.575409645258826</v>
+        <v>-0.5214126605271001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.434682933745795</v>
+        <v>0.479716549558711</v>
       </c>
     </row>
     <row r="18">
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.008443619643972956</v>
+        <v>-0.009404171197920023</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02236274823402932</v>
+        <v>0.01073049195950021</v>
       </c>
     </row>
     <row r="19">
@@ -2232,10 +2232,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0057430286253448</v>
+        <v>0.00457030764177161</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2959968753437756</v>
+        <v>0.4020580118770761</v>
       </c>
     </row>
     <row r="20">
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.192901713928751</v>
+        <v>1.174662578022509</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01099886637131231</v>
+        <v>0.01214533872490628</v>
       </c>
     </row>
     <row r="21">
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5917821544134659</v>
+        <v>0.2875758689896477</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3463193870872658</v>
+        <v>0.6447999517121017</v>
       </c>
     </row>
     <row r="22">
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0002604141962649422</v>
+        <v>-0.0002666139610275224</v>
       </c>
       <c r="C22" t="n">
-        <v>0.05055241061872041</v>
+        <v>0.04658870335260646</v>
       </c>
     </row>
   </sheetData>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3095876932056964</v>
+        <v>-0.2080853349503417</v>
       </c>
       <c r="C2" t="n">
-        <v>0.703351460210169</v>
+        <v>0.8061716405885817</v>
       </c>
     </row>
     <row r="3">
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5870638488300631</v>
+        <v>0.4495157411712977</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1180525540117406</v>
+        <v>0.2120444828842344</v>
       </c>
     </row>
     <row r="4">
@@ -2346,10 +2346,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8378154654326843</v>
+        <v>-0.7689753482656915</v>
       </c>
       <c r="C4" t="n">
-        <v>7.850620499741088e-05</v>
+        <v>0.0002165854400223138</v>
       </c>
     </row>
     <row r="5">
@@ -2359,10 +2359,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7115815401479929</v>
+        <v>-0.6449544868527721</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001134342639215395</v>
+        <v>0.002566033624533109</v>
       </c>
     </row>
     <row r="6">
@@ -2372,10 +2372,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6380389476985446</v>
+        <v>-0.7975093183252487</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005360262095916013</v>
+        <v>0.0004016117029849443</v>
       </c>
     </row>
     <row r="7">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.08823654570346241</v>
+        <v>-0.08069745587664195</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5320243428469795</v>
+        <v>0.5438223049266238</v>
       </c>
     </row>
     <row r="8">
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.000846860934210355</v>
+        <v>0.0008975550808409974</v>
       </c>
       <c r="C8" t="n">
-        <v>1.660985566100072e-29</v>
+        <v>1.649642159024434e-31</v>
       </c>
     </row>
     <row r="9">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.00823925087444824</v>
+        <v>-0.004143638128354544</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03455839033808593</v>
+        <v>0.2959460290124183</v>
       </c>
     </row>
     <row r="10">
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6026512013671469</v>
+        <v>0.6228493687253578</v>
       </c>
       <c r="C10" t="n">
-        <v>1.038981882494404e-06</v>
+        <v>4.625665274080229e-07</v>
       </c>
     </row>
     <row r="11">
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6882467393853895</v>
+        <v>0.59804983045432</v>
       </c>
       <c r="C11" t="n">
-        <v>1.013564521829231e-06</v>
+        <v>2.004973811211866e-05</v>
       </c>
     </row>
     <row r="12">
@@ -2450,10 +2450,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3691938605933466</v>
+        <v>0.1789956471887314</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07668356397847986</v>
+        <v>0.3970610029965496</v>
       </c>
     </row>
     <row r="13">
@@ -2463,10 +2463,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.416429251517908e-05</v>
+        <v>-2.790333322799319e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4901276093392981</v>
+        <v>0.5778222717028529</v>
       </c>
     </row>
     <row r="14">
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.110931706224331e-08</v>
+        <v>4.082180792500936e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1935759775551271</v>
+        <v>0.3814772059795344</v>
       </c>
     </row>
     <row r="15">
@@ -2489,10 +2489,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0213698778510252</v>
+        <v>0.02942522557242632</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5759928717811962</v>
+        <v>0.4348998020050278</v>
       </c>
     </row>
     <row r="16">
@@ -2502,10 +2502,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0484623094251322</v>
+        <v>0.03401821436328704</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06731355481524529</v>
+        <v>0.1917890973087047</v>
       </c>
     </row>
     <row r="17">
@@ -2515,10 +2515,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.3428376917734559</v>
+        <v>-0.1521604779029931</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6442875982132741</v>
+        <v>0.8381671928970447</v>
       </c>
     </row>
     <row r="18">
@@ -2528,10 +2528,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01005036724270368</v>
+        <v>-0.0093525292267038</v>
       </c>
       <c r="C18" t="n">
-        <v>0.005775777068455342</v>
+        <v>0.0113385076576176</v>
       </c>
     </row>
     <row r="19">
@@ -2541,10 +2541,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.003031211142492128</v>
+        <v>0.007028334757305649</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5600305843729775</v>
+        <v>0.2151222442657068</v>
       </c>
     </row>
     <row r="20">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.267386591632076</v>
+        <v>1.276465411073356</v>
       </c>
       <c r="C20" t="n">
-        <v>0.007688960538448258</v>
+        <v>0.007515794332537587</v>
       </c>
     </row>
     <row r="21">
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1845048780777835</v>
+        <v>0.1521035183027226</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7701762472303934</v>
+        <v>0.8102544178793412</v>
       </c>
     </row>
     <row r="22">
@@ -2580,10 +2580,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0002874460322273184</v>
+        <v>-0.0002963994257966076</v>
       </c>
       <c r="C22" t="n">
-        <v>0.03078168212559671</v>
+        <v>0.02798852292100028</v>
       </c>
     </row>
   </sheetData>
@@ -2629,10 +2629,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3098098808172897</v>
+        <v>-0.1753004118214561</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7103812769209115</v>
+        <v>0.8304323024989252</v>
       </c>
     </row>
     <row r="3">
@@ -2642,10 +2642,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7128400212993007</v>
+        <v>0.3135553709988815</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05825127809487869</v>
+        <v>0.3837717547581765</v>
       </c>
     </row>
     <row r="4">
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7693466796398769</v>
+        <v>-0.721745525707022</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002263602188958411</v>
+        <v>0.0005600769472556682</v>
       </c>
     </row>
     <row r="5">
@@ -2668,10 +2668,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.694074385493843</v>
+        <v>-0.5640418572663873</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001179137015681</v>
+        <v>0.00840951732820725</v>
       </c>
     </row>
     <row r="6">
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6357839624592321</v>
+        <v>-0.6642762146966564</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005767128180836091</v>
+        <v>0.003446755153600296</v>
       </c>
     </row>
     <row r="7">
@@ -2694,10 +2694,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1145407915235949</v>
+        <v>-0.002240894939495575</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3935993146980661</v>
+        <v>0.9868776596838438</v>
       </c>
     </row>
     <row r="8">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0009076500637519651</v>
+        <v>0.0008620504104182582</v>
       </c>
       <c r="C8" t="n">
-        <v>3.945787632885721e-31</v>
+        <v>4.024189614212823e-30</v>
       </c>
     </row>
     <row r="9">
@@ -2720,10 +2720,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.007202475170749404</v>
+        <v>-0.00613600781587988</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06771389673876632</v>
+        <v>0.1127507887748727</v>
       </c>
     </row>
     <row r="10">
@@ -2733,10 +2733,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6275114273361253</v>
+        <v>0.5758791520221054</v>
       </c>
       <c r="C10" t="n">
-        <v>5.471668094982287e-07</v>
+        <v>2.456052303306714e-06</v>
       </c>
     </row>
     <row r="11">
@@ -2746,10 +2746,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.616457561719832</v>
+        <v>0.6916203686758031</v>
       </c>
       <c r="C11" t="n">
-        <v>1.316381581400474e-05</v>
+        <v>8.376031099968787e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2759,10 +2759,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3664539475711502</v>
+        <v>0.3611701278376941</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07958339491428597</v>
+        <v>0.08125779503599929</v>
       </c>
     </row>
     <row r="13">
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.574140856453323e-05</v>
+        <v>-3.529033687609974e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2629357876651495</v>
+        <v>0.4694030302973923</v>
       </c>
     </row>
     <row r="14">
@@ -2785,10 +2785,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.983969786901414e-08</v>
+        <v>2.987094533943402e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3772628025961757</v>
+        <v>0.4962336941879183</v>
       </c>
     </row>
     <row r="15">
@@ -2798,10 +2798,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.00657630413442864</v>
+        <v>0.02835915113104073</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8603746582537107</v>
+        <v>0.4463382365542262</v>
       </c>
     </row>
     <row r="16">
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04640943826177318</v>
+        <v>0.04216677319337363</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07728047939754917</v>
+        <v>0.1066724284522852</v>
       </c>
     </row>
     <row r="17">
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02896978311502518</v>
+        <v>-0.05791013470977906</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9688074401211769</v>
+        <v>0.9374558709013152</v>
       </c>
     </row>
     <row r="18">
@@ -2837,10 +2837,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01037621298791749</v>
+        <v>-0.009445013829251635</v>
       </c>
       <c r="C18" t="n">
-        <v>0.005405137647927066</v>
+        <v>0.009620813379762496</v>
       </c>
     </row>
     <row r="19">
@@ -2850,10 +2850,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.003630405207639766</v>
+        <v>0.00458184250053595</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5082510151888603</v>
+        <v>0.3923894146368226</v>
       </c>
     </row>
     <row r="20">
@@ -2863,10 +2863,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.243599003888868</v>
+        <v>1.275443349167167</v>
       </c>
       <c r="C20" t="n">
-        <v>0.008721160976046463</v>
+        <v>0.006565945170442434</v>
       </c>
     </row>
     <row r="21">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.06031218307251628</v>
+        <v>0.2190689779578474</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9239386225487343</v>
+        <v>0.7204853330147157</v>
       </c>
     </row>
     <row r="22">
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0002112692521153288</v>
+        <v>-0.0002348907391268755</v>
       </c>
       <c r="C22" t="n">
-        <v>0.11284088012476</v>
+        <v>0.07033039203305591</v>
       </c>
     </row>
   </sheetData>
@@ -2938,10 +2938,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.223558020042326</v>
+        <v>-0.04147119889074162</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7867405556384416</v>
+        <v>0.959708776893725</v>
       </c>
     </row>
     <row r="3">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3742799379625444</v>
+        <v>0.3985225721214282</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3000356648579119</v>
+        <v>0.2729112007625664</v>
       </c>
     </row>
     <row r="4">
@@ -2964,10 +2964,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6940410962040386</v>
+        <v>-0.8727422046678802</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0008105725928143512</v>
+        <v>3.093426264036082e-05</v>
       </c>
     </row>
     <row r="5">
@@ -2977,10 +2977,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5448438263380773</v>
+        <v>-0.6828430663837803</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01060034998236147</v>
+        <v>0.001490292034578187</v>
       </c>
     </row>
     <row r="6">
@@ -2990,10 +2990,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7591750761236743</v>
+        <v>-0.6404819698345424</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0008937364304111455</v>
+        <v>0.005326548455081278</v>
       </c>
     </row>
     <row r="7">
@@ -3003,10 +3003,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.006778555496492719</v>
+        <v>-0.04125367156687471</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9602561509571323</v>
+        <v>0.7619901150959769</v>
       </c>
     </row>
     <row r="8">
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008546296871135684</v>
+        <v>0.0008591634964863598</v>
       </c>
       <c r="C8" t="n">
-        <v>3.465067227294873e-30</v>
+        <v>3.546454418839168e-30</v>
       </c>
     </row>
     <row r="9">
@@ -3029,10 +3029,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.006457077630110145</v>
+        <v>-0.00934198706434629</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09943759066643572</v>
+        <v>0.01620191094022815</v>
       </c>
     </row>
     <row r="10">
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5692004226545738</v>
+        <v>0.6598649287744156</v>
       </c>
       <c r="C10" t="n">
-        <v>3.250720477851771e-06</v>
+        <v>9.053767270361722e-08</v>
       </c>
     </row>
     <row r="11">
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6327262793791202</v>
+        <v>0.6404205645623205</v>
       </c>
       <c r="C11" t="n">
-        <v>6.37544023115033e-06</v>
+        <v>4.405929812614655e-06</v>
       </c>
     </row>
     <row r="12">
@@ -3068,10 +3068,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.298251365835803</v>
+        <v>0.5160031692329062</v>
       </c>
       <c r="C12" t="n">
-        <v>0.151777502095137</v>
+        <v>0.01317020873203167</v>
       </c>
     </row>
     <row r="13">
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.31648130050933e-05</v>
+        <v>-4.462764599760609e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.634727082222349</v>
+        <v>0.3677581386928612</v>
       </c>
     </row>
     <row r="14">
@@ -3094,10 +3094,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.293269557771262e-08</v>
+        <v>5.629513936387216e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3381305252169459</v>
+        <v>0.2238863498703155</v>
       </c>
     </row>
     <row r="15">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.04145741012566221</v>
+        <v>0.02669928828099779</v>
       </c>
       <c r="C15" t="n">
-        <v>0.257510132255659</v>
+        <v>0.4721351171006729</v>
       </c>
     </row>
     <row r="16">
@@ -3120,10 +3120,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03049930979966581</v>
+        <v>0.04813667770688423</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2271834833984855</v>
+        <v>0.06107373183083423</v>
       </c>
     </row>
     <row r="17">
@@ -3133,10 +3133,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.3413981455521026</v>
+        <v>-0.1809752350683033</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6415870944677493</v>
+        <v>0.8065301074985173</v>
       </c>
     </row>
     <row r="18">
@@ -3146,10 +3146,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.007628847662618966</v>
+        <v>-0.008937722200805616</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03767457336775149</v>
+        <v>0.01485344632000649</v>
       </c>
     </row>
     <row r="19">
@@ -3159,10 +3159,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.006236367478962375</v>
+        <v>0.004261978106592013</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2562663846275691</v>
+        <v>0.4276607088416748</v>
       </c>
     </row>
     <row r="20">
@@ -3172,10 +3172,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9793761660883024</v>
+        <v>1.396910046767375</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03642332482430528</v>
+        <v>0.003011139306408352</v>
       </c>
     </row>
     <row r="21">
@@ -3185,10 +3185,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1973959214556249</v>
+        <v>0.4286968302770345</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7474678711056413</v>
+        <v>0.4930932229137858</v>
       </c>
     </row>
     <row r="22">
@@ -3198,10 +3198,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0002994104359010662</v>
+        <v>-0.0002639733418278038</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02247337039223007</v>
+        <v>0.04636040682204826</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR_new/Toulouse.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Toulouse.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,270 +466,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1043833700706174</v>
+        <v>-0.8884784690212404</v>
       </c>
       <c r="C2" t="n">
-        <v>0.899444368466034</v>
+        <v>0.2460553314353743</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5093206429697674</v>
+        <v>0.2630926146765301</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1650279283746894</v>
+        <v>2.424337999631776e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7414530107439005</v>
+        <v>0.000978851620684952</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004357218319016616</v>
+        <v>2.312676481842899e-39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5608859090217054</v>
+        <v>-0.007293755231570657</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01005050770283621</v>
+        <v>0.05819243882269104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6444223987728458</v>
+        <v>0.6371837823571483</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004919714601876014</v>
+        <v>2.550992151193754e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.04132501191959156</v>
+        <v>0.5110732006864476</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7664501600789982</v>
+        <v>0.0002159400747450745</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0009001032080852262</v>
+        <v>0.2179914048904396</v>
       </c>
       <c r="C8" t="n">
-        <v>1.106083168413962e-31</v>
+        <v>0.2887426424471564</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.007910032114738872</v>
+        <v>-6.442293047423521e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04441816364752528</v>
+        <v>0.191382472876257</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6519055900455681</v>
+        <v>4.583278254730072e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>1.508597036622009e-07</v>
+        <v>0.3137307518422434</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5569246995734265</v>
+        <v>0.02402620202349337</v>
       </c>
       <c r="C11" t="n">
-        <v>7.6926425654981e-05</v>
+        <v>0.5179372196202516</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2666212548415753</v>
+        <v>0.04881555632618451</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2016284832897258</v>
+        <v>0.05716747546331958</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.355725112700256e-05</v>
+        <v>-0.2026734978643946</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2721877161543279</v>
+        <v>0.7817070472771254</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.680272355067225e-08</v>
+        <v>-0.009704333607634936</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3029118367665331</v>
+        <v>0.007496440335009646</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02495271743871062</v>
+        <v>0.003733078232402936</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5041496900189897</v>
+        <v>0.4907088646886929</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04929280203307317</v>
+        <v>1.235027401369467</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05591870581534311</v>
+        <v>0.008906898470957636</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.3401423059546104</v>
+        <v>0.0817954150403722</v>
       </c>
       <c r="C17" t="n">
-        <v>0.642206107380811</v>
+        <v>0.8946923331424849</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.009641708944664346</v>
+        <v>-0.0001776523332969294</v>
       </c>
       <c r="C18" t="n">
-        <v>0.008358369655350818</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.003450906849050426</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5230328985634338</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.23455418453442</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.00914031369244063</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.1652685475481424</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.7903785503893579</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.000196268228245244</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.136598084935089</v>
+        <v>0.1712564155176622</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,270 +723,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1942942954937903</v>
+        <v>-0.8630530067582124</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8101255427985505</v>
+        <v>0.2508420046737968</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4611035831766299</v>
+        <v>0.3179032067626314</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2254582268562468</v>
+        <v>4.840132417646598e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8005282439723292</v>
+        <v>0.0009320699334176764</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000137489298545086</v>
+        <v>1.895738024560308e-36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6223703755105827</v>
+        <v>-0.006827689004048909</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003941865272140181</v>
+        <v>0.0735772841404389</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8095152492165886</v>
+        <v>0.567585066689913</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0004057829631926913</v>
+        <v>3.101834371877997e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01444548069367248</v>
+        <v>0.6575998200908166</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9175225873214029</v>
+        <v>1.865010045744696e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008440174275424295</v>
+        <v>0.393484777592837</v>
       </c>
       <c r="C8" t="n">
-        <v>1.176708014072457e-28</v>
+        <v>0.05358939126206227</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.007510730888593243</v>
+        <v>-5.864867247020159e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05412571289716463</v>
+        <v>0.2383074823872222</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5841525238648165</v>
+        <v>5.329322019076228e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>1.787775288316583e-06</v>
+        <v>0.2533928323352793</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7148103658675967</v>
+        <v>-0.001481027545721326</v>
       </c>
       <c r="C11" t="n">
-        <v>3.976029611017044e-07</v>
+        <v>0.9675368317595204</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4416695640838744</v>
+        <v>0.03653484165403928</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03345478168219462</v>
+        <v>0.1520112212658037</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.926207495935074e-05</v>
+        <v>0.07872778353424092</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3182984996127244</v>
+        <v>0.9153646664088148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.820684534809434e-08</v>
+        <v>-0.01111416633049244</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2135315334578501</v>
+        <v>0.002118546818237786</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.001950753518373295</v>
+        <v>0.004229646611446455</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9575190588087978</v>
+        <v>0.4217843971955291</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03609308533506786</v>
+        <v>1.221947969956545</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1599774222987655</v>
+        <v>0.009388520410017072</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1041502943934144</v>
+        <v>0.06238525610971265</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8885111400712251</v>
+        <v>0.9205297174965006</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01102309906817594</v>
+        <v>-0.0002295498955889942</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002484904780304853</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.003553740701769509</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4965772840419109</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.278593697054629</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.006957183057786552</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.1869957305941669</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.7667037142584447</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0002520970166678887</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.05937476400402102</v>
+        <v>0.08035380802172253</v>
       </c>
     </row>
   </sheetData>
@@ -1052,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,270 +980,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.09456681584832932</v>
+        <v>-1.109076164982835</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9086514689471001</v>
+        <v>0.1514663602922701</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5061598497399198</v>
+        <v>0.2786293948174436</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1741237203333053</v>
+        <v>5.302819761960073e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7760497449594541</v>
+        <v>0.0009281191852121092</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002011668164444475</v>
+        <v>3.315335194542931e-37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6140086897896589</v>
+        <v>-0.005619167336100088</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004202447952991752</v>
+        <v>0.1393893799673848</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4985289259166616</v>
+        <v>0.675093879092998</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03251363942222794</v>
+        <v>3.324907445766598e-08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.06101491350532318</v>
+        <v>0.5274657548524633</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6609225578393798</v>
+        <v>0.000111648385149428</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008568271062736544</v>
+        <v>0.2577164156066996</v>
       </c>
       <c r="C8" t="n">
-        <v>2.993242929753361e-30</v>
+        <v>0.2059502059410441</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.005998404427144113</v>
+        <v>-4.707701393181791e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1215536235148177</v>
+        <v>0.3408724560883282</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6846436477508114</v>
+        <v>3.906726828757672e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>2.360770921909368e-08</v>
+        <v>0.3938924530899623</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5666973672706568</v>
+        <v>0.0267509538436715</v>
       </c>
       <c r="C11" t="n">
-        <v>4.710235603334611e-05</v>
+        <v>0.4668211124222404</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2962561657252147</v>
+        <v>0.04235884183502564</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1521861244417907</v>
+        <v>0.09307660753637989</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.539766606755278e-05</v>
+        <v>-0.04175156435333272</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4686131421318039</v>
+        <v>0.9541627467958701</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.1004059514872e-08</v>
+        <v>-0.008937860662988894</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3712120046790315</v>
+        <v>0.01329812322267176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02949819048997416</v>
+        <v>0.004989157332925528</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4246265914712256</v>
+        <v>0.3680421769280283</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04049617135363703</v>
+        <v>1.18633836506237</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1099402600041517</v>
+        <v>0.01106206884350838</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1747554635458199</v>
+        <v>0.1102305545415538</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8098683344325235</v>
+        <v>0.8585974931445925</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.008975303579038781</v>
+        <v>-0.0002263007468927835</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01338773387158883</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.00492018726048434</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3646650032616251</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.230329949099436</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.008785713723620657</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.2327127819811532</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.7086265916280786</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0002503305970278284</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.05596652673331895</v>
+        <v>0.07946252178018728</v>
       </c>
     </row>
   </sheetData>
@@ -1361,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1393,270 +1237,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.4435051927450994</v>
+        <v>-1.457742280971648</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6009223436606252</v>
+        <v>0.06467584064870624</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5393439736547401</v>
+        <v>0.2561078381550511</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1427915712772669</v>
+        <v>3.222029602156275e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.740226122446686</v>
+        <v>0.000923894402777733</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003987404671062915</v>
+        <v>3.584862501682721e-36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6111967177101831</v>
+        <v>-0.005004167104242676</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004567454171251623</v>
+        <v>0.19725533997419</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5690973295779124</v>
+        <v>0.5922685490784617</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01505686721025344</v>
+        <v>1.588419950347384e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.06853358055665604</v>
+        <v>0.6809573538599371</v>
       </c>
       <c r="C7" t="n">
-        <v>0.613934142611495</v>
+        <v>9.405992357684391e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008491466289865694</v>
+        <v>0.259468367715477</v>
       </c>
       <c r="C8" t="n">
-        <v>3.355950471212095e-29</v>
+        <v>0.2109071268353646</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.005676521644237859</v>
+        <v>-2.45252286316019e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1513273188935273</v>
+        <v>0.6271879118073498</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5952445879912964</v>
+        <v>3.740630848258253e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>1.542513653531104e-06</v>
+        <v>0.4145315388428122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7267952319195656</v>
+        <v>0.008626422953074074</v>
       </c>
       <c r="C11" t="n">
-        <v>2.842049826154787e-07</v>
+        <v>0.8199507789957979</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3119627117685009</v>
+        <v>0.0554925614610059</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1377155974710473</v>
+        <v>0.04293923792224164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.71709026680101e-05</v>
+        <v>-0.4710832604058292</v>
       </c>
       <c r="C13" t="n">
-        <v>0.73140600718666</v>
+        <v>0.5289949955233655</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.021631066255211e-08</v>
+        <v>-0.00565935779016353</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3805273221512965</v>
+        <v>0.1271267865713963</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.006251071055562153</v>
+        <v>0.007202413619974463</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8698954306261504</v>
+        <v>0.2025717742969007</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05855737901162442</v>
+        <v>1.031072621505196</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03366359105679562</v>
+        <v>0.03029226168810757</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.5587341079633911</v>
+        <v>0.4128910950872559</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4545896369934044</v>
+        <v>0.5144215735681636</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.005678797734767753</v>
+        <v>-0.0002864954924713959</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1289583940018447</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.006980329513623713</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.2195279327203734</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.063428230833065</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0259019263971882</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.474880548031659</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.4564389087890132</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0003018620524278619</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.02393704435219814</v>
+        <v>0.0295089209957529</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1702,270 +1494,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2395613733121189</v>
+        <v>-0.9007081411251907</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7697953702632684</v>
+        <v>0.2249088511575456</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2842789260655135</v>
+        <v>0.2627369527063069</v>
       </c>
       <c r="C3" t="n">
-        <v>0.446469865497272</v>
+        <v>2.604615980384367e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7857214810873583</v>
+        <v>0.000967357676463299</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002225465178531577</v>
+        <v>6.20576776017874e-39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6249129618126156</v>
+        <v>-0.005377736553867015</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004347291358409635</v>
+        <v>0.1663778347416843</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7749547421446317</v>
+        <v>0.5490491395239718</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001087372827541189</v>
+        <v>1.004162807497551e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.01380957985271136</v>
+        <v>0.6814225286732817</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9222401833788463</v>
+        <v>8.524688749534975e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008753713076537522</v>
+        <v>0.209804373662708</v>
       </c>
       <c r="C8" t="n">
-        <v>2.84559803977127e-30</v>
+        <v>0.3093988402902415</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.006082551800912724</v>
+        <v>-6.33025660145959e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1260122925169809</v>
+        <v>0.2062140155236998</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5582581634545588</v>
+        <v>3.014973960004902e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>7.801088011744525e-06</v>
+        <v>0.4989932556243446</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7477289418718399</v>
+        <v>0.02053925554943997</v>
       </c>
       <c r="C11" t="n">
-        <v>1.216515026791273e-07</v>
+        <v>0.5734119985363373</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2562686805314176</v>
+        <v>0.04610767384779053</v>
       </c>
       <c r="C12" t="n">
-        <v>0.222691819921835</v>
+        <v>0.07218885358726639</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.104875139220322e-05</v>
+        <v>0.4498131885027535</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3043208694236187</v>
+        <v>0.5471410622567103</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.15067036164433e-08</v>
+        <v>-0.008332388316018157</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4806584575003253</v>
+        <v>0.02228039834452337</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0204269105424599</v>
+        <v>0.00332513936406252</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5789579182522533</v>
+        <v>0.5199152408765179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04687720136502862</v>
+        <v>1.053494555000629</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07006870005475466</v>
+        <v>0.02486825686771954</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2275587367698912</v>
+        <v>0.01496660300270436</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7614038066032636</v>
+        <v>0.9806766873616736</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.008565125966389335</v>
+        <v>-0.0002330662844652138</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02036694085472744</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.002083811185946339</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.6926088833527166</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.037636136709916</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.02785574659291402</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.1075626206368655</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.862850175687924</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0002497012556978567</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.06622824360759787</v>
+        <v>0.0811807009201603</v>
       </c>
     </row>
   </sheetData>
@@ -1979,7 +1719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2011,270 +1751,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07017685582149145</v>
+        <v>-1.037528002658507</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9324385503728092</v>
+        <v>0.1785630306992503</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3330282054532149</v>
+        <v>0.2461375044913901</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3509215146726016</v>
+        <v>4.467843954697101e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7804626600365737</v>
+        <v>0.0009703383690186352</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001584640519225977</v>
+        <v>2.381726273666336e-39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6080485853441239</v>
+        <v>-0.007734150419351413</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004334087793554178</v>
+        <v>0.04397172950494482</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8277578678092928</v>
+        <v>0.5824890921187044</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002357803695643964</v>
+        <v>1.958378508029962e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.02329927820849465</v>
+        <v>0.6452605335885707</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8608551742924473</v>
+        <v>2.85327750916817e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008800760650272839</v>
+        <v>0.3160351579252659</v>
       </c>
       <c r="C8" t="n">
-        <v>6.51346316623678e-31</v>
+        <v>0.1264780628583011</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.008744185044819908</v>
+        <v>-3.411872652601109e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02660490394104066</v>
+        <v>0.4970736547847289</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5856250870022671</v>
+        <v>2.768915808570868e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>1.971289985003971e-06</v>
+        <v>0.5392041515502007</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7192889002923569</v>
+        <v>0.01175014657202134</v>
       </c>
       <c r="C11" t="n">
-        <v>3.32930093260812e-07</v>
+        <v>0.7509897504629635</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3716985941255956</v>
+        <v>0.04540341602787411</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0783320868638296</v>
+        <v>0.07928164775294656</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.031103253084114e-05</v>
+        <v>-0.307361066066259</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6840681359649672</v>
+        <v>0.6760520936888368</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.092807420930081e-08</v>
+        <v>-0.009094078420225393</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4922123617657963</v>
+        <v>0.01279342252532144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01347407668417143</v>
+        <v>0.005448729148418195</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7173472960825504</v>
+        <v>0.3219412008117012</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04176052037310864</v>
+        <v>1.149310676358716</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1082213206303786</v>
+        <v>0.01369664154427272</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.5214126605271001</v>
+        <v>0.1877023894692326</v>
       </c>
       <c r="C17" t="n">
-        <v>0.479716549558711</v>
+        <v>0.7612936929260534</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.009404171197920023</v>
+        <v>-0.0002344564837305084</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01073049195950021</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.00457030764177161</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4020580118770761</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.174662578022509</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.01214533872490628</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.2875758689896477</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.6447999517121017</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0002666139610275224</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.04658870335260646</v>
+        <v>0.07523565855154452</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +1976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2320,270 +2008,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2080853349503417</v>
+        <v>-1.281721061134038</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8061716405885817</v>
+        <v>0.102993945265175</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4495157411712977</v>
+        <v>0.216088016497565</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2120444828842344</v>
+        <v>0.000342414093847336</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7689753482656915</v>
+        <v>0.0009820527102409626</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002165854400223138</v>
+        <v>1.286551795671799e-39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6449544868527721</v>
+        <v>-0.003410879022361993</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002566033624533109</v>
+        <v>0.3787228154337752</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7975093183252487</v>
+        <v>0.6127798961482878</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0004016117029849443</v>
+        <v>6.362965535526747e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.08069745587664195</v>
+        <v>0.5509477666845612</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5438223049266238</v>
+        <v>5.880557146919418e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008975550808409974</v>
+        <v>0.1557681228142608</v>
       </c>
       <c r="C8" t="n">
-        <v>1.649642159024434e-31</v>
+        <v>0.4525121366874201</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.004143638128354544</v>
+        <v>-3.862958809554766e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2959460290124183</v>
+        <v>0.4441615744573699</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6228493687253578</v>
+        <v>4.173548043073522e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>4.625665274080229e-07</v>
+        <v>0.3694930159704805</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.59804983045432</v>
+        <v>0.02937718459862046</v>
       </c>
       <c r="C11" t="n">
-        <v>2.004973811211866e-05</v>
+        <v>0.4319204050323991</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1789956471887314</v>
+        <v>0.03406481402145074</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3970610029965496</v>
+        <v>0.1882822142709237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.790333322799319e-05</v>
+        <v>-0.02657524533138051</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5778222717028529</v>
+        <v>0.9715291927361328</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.082180792500936e-08</v>
+        <v>-0.009193092496858447</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3814772059795344</v>
+        <v>0.01192002100226002</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02942522557242632</v>
+        <v>0.007407067797826379</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4348998020050278</v>
+        <v>0.1889323259703233</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03401821436328704</v>
+        <v>1.259337002432118</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1917890973087047</v>
+        <v>0.008042143149871669</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1521604779029931</v>
+        <v>0.05679347319054046</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8381671928970447</v>
+        <v>0.9278728974221889</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0093525292267038</v>
+        <v>-0.0002797193437763103</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0113385076576176</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.007028334757305649</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.2151222442657068</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.276465411073356</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.007515794332537587</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.1521035183027226</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.8102544178793412</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0002963994257966076</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.02798852292100028</v>
+        <v>0.03442879979501387</v>
       </c>
     </row>
   </sheetData>
@@ -2597,7 +2233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2629,270 +2265,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1753004118214561</v>
+        <v>-1.121529451441029</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8304323024989252</v>
+        <v>0.1399854761764737</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3135553709988815</v>
+        <v>0.2599777743078296</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3837717547581765</v>
+        <v>1.838912667677681e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.721745525707022</v>
+        <v>0.0009409865869046323</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0005600769472556682</v>
+        <v>1.406121621205457e-37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5640418572663873</v>
+        <v>-0.005755413525815268</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00840951732820725</v>
+        <v>0.1288927333588684</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6642762146966564</v>
+        <v>0.5693808008762032</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003446755153600296</v>
+        <v>2.971640805723624e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.002240894939495575</v>
+        <v>0.64148943620992</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9868776596838438</v>
+        <v>2.911971400427643e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008620504104182582</v>
+        <v>0.3294638216627598</v>
       </c>
       <c r="C8" t="n">
-        <v>4.024189614212823e-30</v>
+        <v>0.1058940848510067</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.00613600781587988</v>
+        <v>-4.546801248526922e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1127507887748727</v>
+        <v>0.3556200856675846</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5758791520221054</v>
+        <v>2.983901384709677e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>2.456052303306714e-06</v>
+        <v>0.4972528086816268</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6916203686758031</v>
+        <v>0.02765236804718347</v>
       </c>
       <c r="C11" t="n">
-        <v>8.376031099968787e-07</v>
+        <v>0.4554450252370205</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3611701278376941</v>
+        <v>0.0424173343458539</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08125779503599929</v>
+        <v>0.1030996533231643</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.529033687609974e-05</v>
+        <v>0.1139459538130319</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4694030302973923</v>
+        <v>0.8770997094836369</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.987094533943402e-08</v>
+        <v>-0.009477787053794299</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4962336941879183</v>
+        <v>0.008849600700189097</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02835915113104073</v>
+        <v>0.005051986231863955</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4463382365542262</v>
+        <v>0.347157140172959</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04216677319337363</v>
+        <v>1.268079288145194</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1066724284522852</v>
+        <v>0.006670183457031772</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.05791013470977906</v>
+        <v>0.1285055506207566</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9374558709013152</v>
+        <v>0.8327868995492522</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.009445013829251635</v>
+        <v>-0.0002234948339990423</v>
       </c>
       <c r="C18" t="n">
-        <v>0.009620813379762496</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.00458184250053595</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3923894146368226</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.275443349167167</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.006565945170442434</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.2190689779578474</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.7204853330147157</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0002348907391268755</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.07033039203305591</v>
+        <v>0.08068226559606405</v>
       </c>
     </row>
   </sheetData>
@@ -2906,7 +2490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2938,270 +2522,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.04147119889074162</v>
+        <v>-1.190285693284889</v>
       </c>
       <c r="C2" t="n">
-        <v>0.959708776893725</v>
+        <v>0.1161583779955413</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3985225721214282</v>
+        <v>0.2963499989188355</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2729112007625664</v>
+        <v>1.696383380229806e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8727422046678802</v>
+        <v>0.0009410623024007627</v>
       </c>
       <c r="C4" t="n">
-        <v>3.093426264036082e-05</v>
+        <v>9.991864806530052e-38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6828430663837803</v>
+        <v>-0.008259016508293499</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001490292034578187</v>
+        <v>0.02923194462356511</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6404819698345424</v>
+        <v>0.6430362972538594</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005326548455081278</v>
+        <v>1.694585209045822e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.04125367156687471</v>
+        <v>0.5858914679913422</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7619901150959769</v>
+        <v>1.783527868883655e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008591634964863598</v>
+        <v>0.4412084922434908</v>
       </c>
       <c r="C8" t="n">
-        <v>3.546454418839168e-30</v>
+        <v>0.03031705677649023</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.00934198706434629</v>
+        <v>-5.499749974928954e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01620191094022815</v>
+        <v>0.2713465729213197</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6598649287744156</v>
+        <v>5.102420778490761e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>9.053767270361722e-08</v>
+        <v>0.2672041885095967</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6404205645623205</v>
+        <v>0.02635464214615895</v>
       </c>
       <c r="C11" t="n">
-        <v>4.405929812614655e-06</v>
+        <v>0.4750068147439107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5160031692329062</v>
+        <v>0.04730204574303718</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01317020873203167</v>
+        <v>0.06375347526404407</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.462764599760609e-05</v>
+        <v>0.02194695176567438</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3677581386928612</v>
+        <v>0.9762479719393424</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.629513936387216e-08</v>
+        <v>-0.008795411776058045</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2238863498703155</v>
+        <v>0.01549717069993316</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02669928828099779</v>
+        <v>0.004913276406931563</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4721351171006729</v>
+        <v>0.3597059918825545</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04813667770688423</v>
+        <v>1.33679112834049</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06107373183083423</v>
+        <v>0.004260884032624696</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1809752350683033</v>
+        <v>0.2708136179142565</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8065301074985173</v>
+        <v>0.6624808290696995</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.008937722200805616</v>
+        <v>-0.000242569999830663</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01485344632000649</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.004261978106592013</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4276607088416748</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.396910046767375</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.003011139306408352</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.4286968302770345</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.4930932229137858</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0002639733418278038</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.04636040682204826</v>
+        <v>0.06239088887663046</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR_new/Toulouse.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Toulouse.xlsx
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.8884784690212404</v>
+        <v>-0.8686639330906584</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2460553314353743</v>
+        <v>0.2564757398197415</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2630926146765301</v>
+        <v>0.2652461671163705</v>
       </c>
       <c r="C3" t="n">
-        <v>2.424337999631776e-05</v>
+        <v>2.181596801688162e-05</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.000978851620684952</v>
+        <v>0.0009783991172948329</v>
       </c>
       <c r="C4" t="n">
-        <v>2.312676481842899e-39</v>
+        <v>2.176071940003729e-39</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007293755231570657</v>
+        <v>-0.0070263461359694</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05819243882269104</v>
+        <v>0.06796831882512325</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6371837823571483</v>
+        <v>0.6403106099200778</v>
       </c>
       <c r="C6" t="n">
-        <v>2.550992151193754e-07</v>
+        <v>2.252738970382329e-07</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5110732006864476</v>
+        <v>0.5062173861124701</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002159400747450745</v>
+        <v>0.0002503561803545016</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2179914048904396</v>
+        <v>0.2129598102998166</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2887426424471564</v>
+        <v>0.2998795557301489</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.442293047423521e-05</v>
+        <v>-0.006601363347528266</v>
       </c>
       <c r="C9" t="n">
-        <v>0.191382472876257</v>
+        <v>0.1582247608272275</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.583278254730072e-08</v>
+        <v>0.04114844347084697</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3137307518422434</v>
+        <v>0.3431754677401635</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02402620202349337</v>
+        <v>0.01380694985602598</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5179372196202516</v>
+        <v>0.7139904985128772</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04881555632618451</v>
+        <v>0.05493122013536217</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05716747546331958</v>
+        <v>0.02140961240372187</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.2026734978643946</v>
+        <v>0.0001700685139129552</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7817070472771254</v>
+        <v>0.9814537141607906</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.009704333607634936</v>
+        <v>-0.01147313684754682</v>
       </c>
       <c r="C14" t="n">
-        <v>0.007496440335009646</v>
+        <v>0.003071053243824577</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.003733078232402936</v>
+        <v>0.003509952848271978</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4907088646886929</v>
+        <v>0.5159127422754607</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.235027401369467</v>
+        <v>0.01224962381945928</v>
       </c>
       <c r="C16" t="n">
-        <v>0.008906898470957636</v>
+        <v>0.00950735746206161</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0817954150403722</v>
+        <v>0.0002494870901758998</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8946923331424849</v>
+        <v>0.9679562541419332</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0001776523332969294</v>
+        <v>-0.01674099433065881</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1712564155176622</v>
+        <v>0.1071405733609528</v>
       </c>
     </row>
   </sheetData>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.8630530067582124</v>
+        <v>-0.8479063499412016</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2508420046737968</v>
+        <v>0.2590190042209505</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3179032067626314</v>
+        <v>0.3203005624267337</v>
       </c>
       <c r="C3" t="n">
-        <v>4.840132417646598e-07</v>
+        <v>4.19341992206161e-07</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0009320699334176764</v>
+        <v>0.0009300367890957196</v>
       </c>
       <c r="C4" t="n">
-        <v>1.895738024560308e-36</v>
+        <v>2.09388840937224e-36</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006827689004048909</v>
+        <v>-0.006422736183425638</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0735772841404389</v>
+        <v>0.09214550202965151</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.567585066689913</v>
+        <v>0.5717517388892488</v>
       </c>
       <c r="C6" t="n">
-        <v>3.101834371877997e-06</v>
+        <v>2.663894536286634e-06</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6575998200908166</v>
+        <v>0.6489666833476129</v>
       </c>
       <c r="C7" t="n">
-        <v>1.865010045744696e-06</v>
+        <v>2.584790114137444e-06</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.393484777592837</v>
+        <v>0.3869684873337524</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05358939126206227</v>
+        <v>0.05752244698200033</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5.864867247020159e-05</v>
+        <v>-0.006169864419767442</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2383074823872222</v>
+        <v>0.1917572937184377</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.329322019076228e-08</v>
+        <v>0.04607555204038792</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2533928323352793</v>
+        <v>0.2986341173579424</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.001481027545721326</v>
+        <v>-0.01343367141228644</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9675368317595204</v>
+        <v>0.7153652898827095</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03653484165403928</v>
+        <v>0.04501689127112902</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1520112212658037</v>
+        <v>0.05738628662357585</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07872778353424092</v>
+        <v>0.003607999972953651</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9153646664088148</v>
+        <v>0.6255396586330334</v>
       </c>
     </row>
     <row r="14">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01111416633049244</v>
+        <v>-0.0133044474199638</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002118546818237786</v>
+        <v>0.0005891669525288229</v>
       </c>
     </row>
     <row r="15">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.004229646611446455</v>
+        <v>0.003949308997244177</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4217843971955291</v>
+        <v>0.4524991437878071</v>
       </c>
     </row>
     <row r="16">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.221947969956545</v>
+        <v>0.01207129850847153</v>
       </c>
       <c r="C16" t="n">
-        <v>0.009388520410017072</v>
+        <v>0.01035548656540073</v>
       </c>
     </row>
     <row r="17">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.06238525610971265</v>
+        <v>-3.427380842236369e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9205297174965006</v>
+        <v>0.995647163010128</v>
       </c>
     </row>
     <row r="18">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0002295498955889942</v>
+        <v>-0.02088042498398791</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08035380802172253</v>
+        <v>0.0457615180575105</v>
       </c>
     </row>
   </sheetData>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.109076164982835</v>
+        <v>-1.051890336993247</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1514663602922701</v>
+        <v>0.1743067204609806</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2786293948174436</v>
+        <v>0.2825004500834626</v>
       </c>
       <c r="C3" t="n">
-        <v>5.302819761960073e-06</v>
+        <v>4.291544034892324e-06</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0009281191852121092</v>
+        <v>0.0009281122444886812</v>
       </c>
       <c r="C4" t="n">
-        <v>3.315335194542931e-37</v>
+        <v>2.735942685389833e-37</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005619167336100088</v>
+        <v>-0.005327999838804425</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1393893799673848</v>
+        <v>0.1605976909448852</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.675093879092998</v>
+        <v>0.6801824482920731</v>
       </c>
       <c r="C6" t="n">
-        <v>3.324907445766598e-08</v>
+        <v>2.693729693242043e-08</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5274657548524633</v>
+        <v>0.5206343757924338</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000111648385149428</v>
+        <v>0.0001380199754209494</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2577164156066996</v>
+        <v>0.2536116628402735</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2059502059410441</v>
+        <v>0.2130321212187919</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.707701393181791e-05</v>
+        <v>-0.004364226121597562</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3408724560883282</v>
+        <v>0.3530710188259627</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.906726828757672e-08</v>
+        <v>0.03612004744743007</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3938924530899623</v>
+        <v>0.4088652823993545</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0267509538436715</v>
+        <v>0.01288960913187813</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4668211124222404</v>
+        <v>0.7294349889579926</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04235884183502564</v>
+        <v>0.04883940636925192</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09307660753637989</v>
+        <v>0.0379031878131539</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.04175156435333272</v>
+        <v>0.002642225234819216</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9541627467958701</v>
+        <v>0.7153068274334282</v>
       </c>
     </row>
     <row r="14">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.008937860662988894</v>
+        <v>-0.01158848912184123</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01329812322267176</v>
+        <v>0.002758067292340232</v>
       </c>
     </row>
     <row r="15">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.004989157332925528</v>
+        <v>0.004610141174750291</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3680421769280283</v>
+        <v>0.4044523035909846</v>
       </c>
     </row>
     <row r="16">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.18633836506237</v>
+        <v>0.01167017666201124</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01106206884350838</v>
+        <v>0.01259722328471645</v>
       </c>
     </row>
     <row r="17">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1102305545415538</v>
+        <v>0.000277646363036921</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8585974931445925</v>
+        <v>0.9644322275303772</v>
       </c>
     </row>
     <row r="18">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0002263007468927835</v>
+        <v>-0.02396873858996535</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07946252178018728</v>
+        <v>0.02036703182352687</v>
       </c>
     </row>
   </sheetData>
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.457742280971648</v>
+        <v>-1.372655565205757</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06467584064870624</v>
+        <v>0.08210555038189467</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2561078381550511</v>
+        <v>0.2607651747368732</v>
       </c>
       <c r="C3" t="n">
-        <v>3.222029602156275e-05</v>
+        <v>2.484347172207669e-05</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.000923894402777733</v>
+        <v>0.000921586576474555</v>
       </c>
       <c r="C4" t="n">
-        <v>3.584862501682721e-36</v>
+        <v>4.047266648465922e-36</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005004167104242676</v>
+        <v>-0.004461848672555944</v>
       </c>
       <c r="C5" t="n">
-        <v>0.19725533997419</v>
+        <v>0.2504515116535315</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5922685490784617</v>
+        <v>0.5997957172580415</v>
       </c>
       <c r="C6" t="n">
-        <v>1.588419950347384e-06</v>
+        <v>1.204528104076147e-06</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6809573538599371</v>
+        <v>0.6655682311638137</v>
       </c>
       <c r="C7" t="n">
-        <v>9.405992357684391e-07</v>
+        <v>1.692178007166845e-06</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.259468367715477</v>
+        <v>0.2437758503940023</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2109071268353646</v>
+        <v>0.2401130643891436</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.45252286316019e-05</v>
+        <v>-0.002202975879328156</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6271879118073498</v>
+        <v>0.6454952355920887</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.740630848258253e-08</v>
+        <v>0.03253812089603904</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4145315388428122</v>
+        <v>0.4578410052967344</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.008626422953074074</v>
+        <v>-0.009877569022762406</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8199507789957979</v>
+        <v>0.7975311492014258</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0554925614610059</v>
+        <v>0.06398923507852917</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04293923792224164</v>
+        <v>0.01350317054936524</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.4710832604058292</v>
+        <v>-0.001132782317567034</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5289949955233655</v>
+        <v>0.8792104916589175</v>
       </c>
     </row>
     <row r="14">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.00565935779016353</v>
+        <v>-0.008896656167523971</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1271267865713963</v>
+        <v>0.02487244328491423</v>
       </c>
     </row>
     <row r="15">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.007202413619974463</v>
+        <v>0.006659324284021691</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2025717742969007</v>
+        <v>0.2357796078621177</v>
       </c>
     </row>
     <row r="16">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.031072621505196</v>
+        <v>0.01002987790820507</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03029226168810757</v>
+        <v>0.03548121330572659</v>
       </c>
     </row>
     <row r="17">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4128910950872559</v>
+        <v>0.002990639579534029</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5144215735681636</v>
+        <v>0.6392403244727904</v>
       </c>
     </row>
     <row r="18">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0002864954924713959</v>
+        <v>-0.02931588552218252</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0295089209957529</v>
+        <v>0.005544477931101403</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.9007081411251907</v>
+        <v>-0.871287530082438</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2249088511575456</v>
+        <v>0.2401621873851576</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2627369527063069</v>
+        <v>0.2654679951996596</v>
       </c>
       <c r="C3" t="n">
-        <v>2.604615980384367e-05</v>
+        <v>2.244055506231407e-05</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.000967357676463299</v>
+        <v>0.0009668343570435321</v>
       </c>
       <c r="C4" t="n">
-        <v>6.20576776017874e-39</v>
+        <v>5.866058102531989e-39</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005377736553867015</v>
+        <v>-0.005004284935292926</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1663778347416843</v>
+        <v>0.1980409854141307</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5490491395239718</v>
+        <v>0.5586707086395835</v>
       </c>
       <c r="C6" t="n">
-        <v>1.004162807497551e-05</v>
+        <v>7.060739209284563e-06</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6814225286732817</v>
+        <v>0.6718965896473094</v>
       </c>
       <c r="C7" t="n">
-        <v>8.524688749534975e-07</v>
+        <v>1.239028347876264e-06</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.209804373662708</v>
+        <v>0.2059477210680364</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3093988402902415</v>
+        <v>0.3184058043428021</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.33025660145959e-05</v>
+        <v>-0.006685685508457141</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2062140155236998</v>
+        <v>0.1561961244538927</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.014973960004902e-08</v>
+        <v>0.02363254050120889</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4989932556243446</v>
+        <v>0.5776508499449908</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02053925554943997</v>
+        <v>0.00857964424398187</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5734119985363373</v>
+        <v>0.816404524342091</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04610767384779053</v>
+        <v>0.0540351410772123</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07218885358726639</v>
+        <v>0.02361404288713509</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4498131885027535</v>
+        <v>0.007380634716773487</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5471410622567103</v>
+        <v>0.323181792966549</v>
       </c>
     </row>
     <row r="14">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.008332388316018157</v>
+        <v>-0.01061261097407554</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02228039834452337</v>
+        <v>0.006623098532385518</v>
       </c>
     </row>
     <row r="15">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.00332513936406252</v>
+        <v>0.002958504510133146</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5199152408765179</v>
+        <v>0.5653838758260401</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.053494555000629</v>
+        <v>0.0103401652506945</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02486825686771954</v>
+        <v>0.02783353136252063</v>
       </c>
     </row>
     <row r="17">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01496660300270436</v>
+        <v>-0.0006096922355574017</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9806766873616736</v>
+        <v>0.9218084939212008</v>
       </c>
     </row>
     <row r="18">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0002330662844652138</v>
+        <v>-0.02128667502259377</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0811807009201603</v>
+        <v>0.04479522122520725</v>
       </c>
     </row>
   </sheetData>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.037528002658507</v>
+        <v>-0.9936312099673005</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1785630306992503</v>
+        <v>0.1972834354002639</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2461375044913901</v>
+        <v>0.2499979837485466</v>
       </c>
       <c r="C3" t="n">
-        <v>4.467843954697101e-05</v>
+        <v>3.603484721422303e-05</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0009703383690186352</v>
+        <v>0.0009695079893165693</v>
       </c>
       <c r="C4" t="n">
-        <v>2.381726273666336e-39</v>
+        <v>2.43075795097123e-39</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007734150419351413</v>
+        <v>-0.007364401256952633</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04397172950494482</v>
+        <v>0.0549023788171521</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5824890921187044</v>
+        <v>0.5862624330599286</v>
       </c>
       <c r="C6" t="n">
-        <v>1.958378508029962e-06</v>
+        <v>1.693820147697363e-06</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6452605335885707</v>
+        <v>0.6386043048349676</v>
       </c>
       <c r="C7" t="n">
-        <v>2.85327750916817e-06</v>
+        <v>3.64865524677916e-06</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3160351579252659</v>
+        <v>0.3105153278962138</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1264780628583011</v>
+        <v>0.1331225833776276</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.411872652601109e-05</v>
+        <v>-0.003378722847856212</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4970736547847289</v>
+        <v>0.4756554139626197</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.768915808570868e-08</v>
+        <v>0.02357207884525234</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5392041515502007</v>
+        <v>0.585237233298371</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01175014657202134</v>
+        <v>-0.001710369938073821</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7509897504629635</v>
+        <v>0.9636254248014241</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04540341602787411</v>
+        <v>0.05268870713733605</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07928164775294656</v>
+        <v>0.02888024708187044</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.307361066066259</v>
+        <v>-6.50007345129985e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6760520936888368</v>
+        <v>0.9929292756422495</v>
       </c>
     </row>
     <row r="14">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.009094078420225393</v>
+        <v>-0.01164091501964063</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01279342252532144</v>
+        <v>0.002868350103797431</v>
       </c>
     </row>
     <row r="15">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.005448729148418195</v>
+        <v>0.005061702034597371</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3219412008117012</v>
+        <v>0.3556586054805804</v>
       </c>
     </row>
     <row r="16">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.149310676358716</v>
+        <v>0.01134596712238615</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01369664154427272</v>
+        <v>0.01502061358972454</v>
       </c>
     </row>
     <row r="17">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1877023894692326</v>
+        <v>0.001011975074696757</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7612936929260534</v>
+        <v>0.8706558947607506</v>
       </c>
     </row>
     <row r="18">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0002344564837305084</v>
+        <v>-0.02335258128910483</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07523565855154452</v>
+        <v>0.02485269153694772</v>
       </c>
     </row>
   </sheetData>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.281721061134038</v>
+        <v>-1.274886249393421</v>
       </c>
       <c r="C2" t="n">
-        <v>0.102993945265175</v>
+        <v>0.1042534251693636</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.216088016497565</v>
+        <v>0.2190004887852587</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000342414093847336</v>
+        <v>0.0002990612812941136</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0009820527102409626</v>
+        <v>0.0009809179113200066</v>
       </c>
       <c r="C4" t="n">
-        <v>1.286551795671799e-39</v>
+        <v>1.341986484129665e-39</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.003410879022361993</v>
+        <v>-0.003095224695163327</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3787228154337752</v>
+        <v>0.4234901978282156</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6127798961482878</v>
+        <v>0.6163146387203012</v>
       </c>
       <c r="C6" t="n">
-        <v>6.362965535526747e-07</v>
+        <v>5.553849733275629e-07</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5509477666845612</v>
+        <v>0.5438783577222406</v>
       </c>
       <c r="C7" t="n">
-        <v>5.880557146919418e-05</v>
+        <v>7.371595500421131e-05</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1557681228142608</v>
+        <v>0.1533885879811271</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4525121366874201</v>
+        <v>0.4588737593478676</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.862958809554766e-05</v>
+        <v>-0.004971555008494993</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4441615744573699</v>
+        <v>0.2979688830303199</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.173548043073522e-08</v>
+        <v>0.03015292939840987</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3694930159704805</v>
+        <v>0.493208952779067</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02937718459862046</v>
+        <v>0.01629305720476596</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4319204050323991</v>
+        <v>0.6661363509232606</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03406481402145074</v>
+        <v>0.04542419467244471</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1882822142709237</v>
+        <v>0.06009679065689317</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02657524533138051</v>
+        <v>0.002854786439617896</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9715291927361328</v>
+        <v>0.6997948242475167</v>
       </c>
     </row>
     <row r="14">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.009193092496858447</v>
+        <v>-0.01151389068813536</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01192002100226002</v>
+        <v>0.003344119475853806</v>
       </c>
     </row>
     <row r="15">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.007407067797826379</v>
+        <v>0.006917941517931472</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1889323259703233</v>
+        <v>0.2168444656590549</v>
       </c>
     </row>
     <row r="16">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.259337002432118</v>
+        <v>0.01267269387546077</v>
       </c>
       <c r="C16" t="n">
-        <v>0.008042143149871669</v>
+        <v>0.007570746340590331</v>
       </c>
     </row>
     <row r="17">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.05679347319054046</v>
+        <v>-1.261086308224923e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9278728974221889</v>
+        <v>0.9984016522571513</v>
       </c>
     </row>
     <row r="18">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0002797193437763103</v>
+        <v>-0.02234595310232029</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03442879979501387</v>
+        <v>0.03493143272112476</v>
       </c>
     </row>
   </sheetData>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.121529451441029</v>
+        <v>-1.058558265760823</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1399854761764737</v>
+        <v>0.1640149874327017</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2599777743078296</v>
+        <v>0.2646636202480334</v>
       </c>
       <c r="C3" t="n">
-        <v>1.838912667677681e-05</v>
+        <v>1.419331391656928e-05</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0009409865869046323</v>
+        <v>0.0009396485961166611</v>
       </c>
       <c r="C4" t="n">
-        <v>1.406121621205457e-37</v>
+        <v>1.792497396218956e-37</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005755413525815268</v>
+        <v>-0.005328521383673544</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1288927333588684</v>
+        <v>0.1596644778045097</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5693808008762032</v>
+        <v>0.5736869053572631</v>
       </c>
       <c r="C6" t="n">
-        <v>2.971640805723624e-06</v>
+        <v>2.544618282765962e-06</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.64148943620992</v>
+        <v>0.6319898931352884</v>
       </c>
       <c r="C7" t="n">
-        <v>2.911971400427643e-06</v>
+        <v>4.178376629138401e-06</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3294638216627598</v>
+        <v>0.3196083054960686</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1058940848510067</v>
+        <v>0.1168682978180673</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.546801248526922e-05</v>
+        <v>-0.003834830036779832</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3556200856675846</v>
+        <v>0.410017889488449</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.983901384709677e-08</v>
+        <v>0.03005319359194842</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4972528086816268</v>
+        <v>0.4791448285428903</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02765236804718347</v>
+        <v>0.01211227782696525</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4554450252370205</v>
+        <v>0.7466006133753503</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0424173343458539</v>
+        <v>0.04759429062260133</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1030996533231643</v>
+        <v>0.05000328344150045</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1139459538130319</v>
+        <v>0.00447831932449115</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8770997094836369</v>
+        <v>0.5434070152271229</v>
       </c>
     </row>
     <row r="14">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.009477787053794299</v>
+        <v>-0.01231949590966276</v>
       </c>
       <c r="C14" t="n">
-        <v>0.008849600700189097</v>
+        <v>0.00146787029229907</v>
       </c>
     </row>
     <row r="15">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.005051986231863955</v>
+        <v>0.004845272169700141</v>
       </c>
       <c r="C15" t="n">
-        <v>0.347157140172959</v>
+        <v>0.3676154221616782</v>
       </c>
     </row>
     <row r="16">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.268079288145194</v>
+        <v>0.01238303135467925</v>
       </c>
       <c r="C16" t="n">
-        <v>0.006670183457031772</v>
+        <v>0.008215220306732345</v>
       </c>
     </row>
     <row r="17">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1285055506207566</v>
+        <v>0.000155256492869212</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8327868995492522</v>
+        <v>0.9798317760196973</v>
       </c>
     </row>
     <row r="18">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0002234948339990423</v>
+        <v>-0.02597079481791275</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08068226559606405</v>
+        <v>0.01228672384839108</v>
       </c>
     </row>
   </sheetData>
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.190285693284889</v>
+        <v>-1.125565013083385</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1161583779955413</v>
+        <v>0.137338172979662</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2963499989188355</v>
+        <v>0.3007016738944306</v>
       </c>
       <c r="C3" t="n">
-        <v>1.696383380229806e-06</v>
+        <v>1.315359257743188e-06</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0009410623024007627</v>
+        <v>0.0009394940527731226</v>
       </c>
       <c r="C4" t="n">
-        <v>9.991864806530052e-38</v>
+        <v>1.036545254900583e-37</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008259016508293499</v>
+        <v>-0.007821663954048744</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02923194462356511</v>
+        <v>0.0389119370966391</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6430362972538594</v>
+        <v>0.6496795299905811</v>
       </c>
       <c r="C6" t="n">
-        <v>1.694585209045822e-07</v>
+        <v>1.299469685013383e-07</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5858914679913422</v>
+        <v>0.5785347653563629</v>
       </c>
       <c r="C7" t="n">
-        <v>1.783527868883655e-05</v>
+        <v>2.314346298280908e-05</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4412084922434908</v>
+        <v>0.4334620560099757</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03031705677649023</v>
+        <v>0.03332029900946601</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5.499749974928954e-05</v>
+        <v>-0.00520375896076474</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2713465729213197</v>
+        <v>0.2715755125038022</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.102420778490761e-08</v>
+        <v>0.04899131753037497</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2672041885095967</v>
+        <v>0.2672058130623374</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02635464214615895</v>
+        <v>0.01128955444228856</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4750068147439107</v>
+        <v>0.7628257629975347</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04730204574303718</v>
+        <v>0.05352614827158264</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06375347526404407</v>
+        <v>0.02482391033085592</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02194695176567438</v>
+        <v>0.003444865534560874</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9762479719393424</v>
+        <v>0.6394029721793617</v>
       </c>
     </row>
     <row r="14">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.008795411776058045</v>
+        <v>-0.01161457427531044</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01549717069993316</v>
+        <v>0.002820236533535989</v>
       </c>
     </row>
     <row r="15">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.004913276406931563</v>
+        <v>0.004546088115871659</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3597059918825545</v>
+        <v>0.395289281134753</v>
       </c>
     </row>
     <row r="16">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.33679112834049</v>
+        <v>0.01309561270975583</v>
       </c>
       <c r="C16" t="n">
-        <v>0.004260884032624696</v>
+        <v>0.005195143424098807</v>
       </c>
     </row>
     <row r="17">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2708136179142565</v>
+        <v>0.001597132799143926</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6624808290696995</v>
+        <v>0.7985071826460836</v>
       </c>
     </row>
     <row r="18">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.000242569999830663</v>
+        <v>-0.02575378405057671</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06239088887663046</v>
+        <v>0.0134188198990935</v>
       </c>
     </row>
   </sheetData>
